--- a/data/type8.xlsx
+++ b/data/type8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="13660"/>
+    <workbookView windowWidth="30240" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1533,8 +1533,8 @@
   <sheetPr/>
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>18</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>18</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>91</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>93</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>95</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>97</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
         <v>99</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>101</v>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>103</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>105</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
         <v>111</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>113</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
         <v>115</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>117</v>
